--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H2">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>417.3096593333333</v>
+        <v>576.300578</v>
       </c>
       <c r="N2">
-        <v>1251.928978</v>
+        <v>1728.901734</v>
       </c>
       <c r="O2">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478776</v>
       </c>
       <c r="P2">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478775</v>
       </c>
       <c r="Q2">
-        <v>51017.36404212288</v>
+        <v>13082.40405528206</v>
       </c>
       <c r="R2">
-        <v>459156.276379106</v>
+        <v>117741.6364975385</v>
       </c>
       <c r="S2">
-        <v>0.1646111174365852</v>
+        <v>0.07421823257027807</v>
       </c>
       <c r="T2">
-        <v>0.1646111174365852</v>
+        <v>0.07421823257027807</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H3">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.584446</v>
       </c>
       <c r="O3">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="P3">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="Q3">
-        <v>146.06977686823</v>
+        <v>27.123097839602</v>
       </c>
       <c r="R3">
-        <v>1314.62799181407</v>
+        <v>244.1078805564179</v>
       </c>
       <c r="S3">
-        <v>0.0004713044204741606</v>
+        <v>0.0001538729712810867</v>
       </c>
       <c r="T3">
-        <v>0.0004713044204741605</v>
+        <v>0.0001538729712810867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H4">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.67269233333333</v>
+        <v>34.99993866666667</v>
       </c>
       <c r="N4">
-        <v>80.01807700000001</v>
+        <v>104.999816</v>
       </c>
       <c r="O4">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505349</v>
       </c>
       <c r="P4">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505348</v>
       </c>
       <c r="Q4">
-        <v>3260.817055917385</v>
+        <v>794.5217426927918</v>
       </c>
       <c r="R4">
-        <v>29347.35350325647</v>
+        <v>7150.695684235126</v>
       </c>
       <c r="S4">
-        <v>0.01052125583924036</v>
+        <v>0.004507428392529106</v>
       </c>
       <c r="T4">
-        <v>0.01052125583924036</v>
+        <v>0.004507428392529106</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H5">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>58.96764933333333</v>
+        <v>56.47565533333333</v>
       </c>
       <c r="N5">
-        <v>176.902948</v>
+        <v>169.426966</v>
       </c>
       <c r="O5">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341624</v>
       </c>
       <c r="P5">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341623</v>
       </c>
       <c r="Q5">
-        <v>7208.97291846274</v>
+        <v>1282.034706474842</v>
       </c>
       <c r="R5">
-        <v>64880.75626616467</v>
+        <v>11538.31235827358</v>
       </c>
       <c r="S5">
-        <v>0.02326025873658316</v>
+        <v>0.007273154812085228</v>
       </c>
       <c r="T5">
-        <v>0.02326025873658316</v>
+        <v>0.007273154812085227</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>417.3096593333333</v>
+        <v>576.300578</v>
       </c>
       <c r="N6">
-        <v>1251.928978</v>
+        <v>1728.901734</v>
       </c>
       <c r="O6">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478776</v>
       </c>
       <c r="P6">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478775</v>
       </c>
       <c r="Q6">
-        <v>55312.20933753451</v>
+        <v>76385.62275937223</v>
       </c>
       <c r="R6">
-        <v>497809.8840378107</v>
+        <v>687470.6048343502</v>
       </c>
       <c r="S6">
-        <v>0.1784687382009831</v>
+        <v>0.433345881309304</v>
       </c>
       <c r="T6">
-        <v>0.1784687382009831</v>
+        <v>0.433345881309304</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.584446</v>
       </c>
       <c r="O7">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="P7">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="Q7">
         <v>158.3665135923455</v>
@@ -883,10 +883,10 @@
         <v>1425.29862233111</v>
       </c>
       <c r="S7">
-        <v>0.0005109807073812786</v>
+        <v>0.0008984344687317026</v>
       </c>
       <c r="T7">
-        <v>0.0005109807073812785</v>
+        <v>0.0008984344687317026</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.67269233333333</v>
+        <v>34.99993866666667</v>
       </c>
       <c r="N8">
-        <v>80.01807700000001</v>
+        <v>104.999816</v>
       </c>
       <c r="O8">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505349</v>
       </c>
       <c r="P8">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505348</v>
       </c>
       <c r="Q8">
-        <v>3535.325648329994</v>
+        <v>4639.058528921284</v>
       </c>
       <c r="R8">
-        <v>31817.93083496995</v>
+        <v>41751.52676029156</v>
       </c>
       <c r="S8">
-        <v>0.01140697714200454</v>
+        <v>0.0263180011373826</v>
       </c>
       <c r="T8">
-        <v>0.01140697714200454</v>
+        <v>0.02631800113738261</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>58.96764933333333</v>
+        <v>56.47565533333333</v>
       </c>
       <c r="N9">
-        <v>176.902948</v>
+        <v>169.426966</v>
       </c>
       <c r="O9">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341624</v>
       </c>
       <c r="P9">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341623</v>
       </c>
       <c r="Q9">
-        <v>7815.853026930242</v>
+        <v>7485.552276125478</v>
       </c>
       <c r="R9">
-        <v>70342.67724237218</v>
+        <v>67369.97048512931</v>
       </c>
       <c r="S9">
-        <v>0.02521840013962368</v>
+        <v>0.04246654188319038</v>
       </c>
       <c r="T9">
-        <v>0.02521840013962368</v>
+        <v>0.04246654188319038</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H10">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>417.3096593333333</v>
+        <v>576.300578</v>
       </c>
       <c r="N10">
-        <v>1251.928978</v>
+        <v>1728.901734</v>
       </c>
       <c r="O10">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478776</v>
       </c>
       <c r="P10">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478775</v>
       </c>
       <c r="Q10">
-        <v>16638.09160458967</v>
+        <v>24173.12618370902</v>
       </c>
       <c r="R10">
-        <v>149742.824441307</v>
+        <v>217558.1356533812</v>
       </c>
       <c r="S10">
-        <v>0.0536839741226624</v>
+        <v>0.137137386482787</v>
       </c>
       <c r="T10">
-        <v>0.0536839741226624</v>
+        <v>0.1371373864827869</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H11">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.584446</v>
       </c>
       <c r="O11">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="P11">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="Q11">
-        <v>47.63715989303111</v>
+        <v>50.11694057141311</v>
       </c>
       <c r="R11">
-        <v>428.73443903728</v>
+        <v>451.0524651427179</v>
       </c>
       <c r="S11">
-        <v>0.0001537046507346527</v>
+        <v>0.0002843201245980588</v>
       </c>
       <c r="T11">
-        <v>0.0001537046507346527</v>
+        <v>0.0002843201245980587</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H12">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.67269233333333</v>
+        <v>34.99993866666667</v>
       </c>
       <c r="N12">
-        <v>80.01807700000001</v>
+        <v>104.999816</v>
       </c>
       <c r="O12">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505349</v>
       </c>
       <c r="P12">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505348</v>
       </c>
       <c r="Q12">
-        <v>1063.437398242818</v>
+        <v>1468.084479018881</v>
       </c>
       <c r="R12">
-        <v>9570.93658418536</v>
+        <v>13212.76031116993</v>
       </c>
       <c r="S12">
-        <v>0.003431255646686698</v>
+        <v>0.008328640121205129</v>
       </c>
       <c r="T12">
-        <v>0.003431255646686698</v>
+        <v>0.008328640121205128</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H13">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>58.96764933333333</v>
+        <v>56.47565533333333</v>
       </c>
       <c r="N13">
-        <v>176.902948</v>
+        <v>169.426966</v>
       </c>
       <c r="O13">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341624</v>
       </c>
       <c r="P13">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341623</v>
       </c>
       <c r="Q13">
-        <v>2351.033889037404</v>
+        <v>2368.890809407319</v>
       </c>
       <c r="R13">
-        <v>21159.30500133664</v>
+        <v>21320.01728466588</v>
       </c>
       <c r="S13">
-        <v>0.007585776389509129</v>
+        <v>0.01343903523261086</v>
       </c>
       <c r="T13">
-        <v>0.007585776389509129</v>
+        <v>0.01343903523261086</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H14">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>417.3096593333333</v>
+        <v>576.300578</v>
       </c>
       <c r="N14">
-        <v>1251.928978</v>
+        <v>1728.901734</v>
       </c>
       <c r="O14">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478776</v>
       </c>
       <c r="P14">
-        <v>0.8277575129472603</v>
+        <v>0.8614732012478775</v>
       </c>
       <c r="Q14">
-        <v>133576.4070946107</v>
+        <v>38210.21978729586</v>
       </c>
       <c r="R14">
-        <v>1202187.663851496</v>
+        <v>343891.9780856628</v>
       </c>
       <c r="S14">
-        <v>0.4309936831870296</v>
+        <v>0.2167717008855086</v>
       </c>
       <c r="T14">
-        <v>0.4309936831870296</v>
+        <v>0.2167717008855085</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H15">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.584446</v>
       </c>
       <c r="O15">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="P15">
-        <v>0.002369984366839822</v>
+        <v>0.001786049553652741</v>
       </c>
       <c r="Q15">
-        <v>382.4477478503168</v>
+        <v>79.21934878208266</v>
       </c>
       <c r="R15">
-        <v>3442.029730652851</v>
+        <v>712.9741390387439</v>
       </c>
       <c r="S15">
-        <v>0.00123399458824973</v>
+        <v>0.0004494219890418929</v>
       </c>
       <c r="T15">
-        <v>0.00123399458824973</v>
+        <v>0.0004494219890418928</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H16">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.67269233333333</v>
+        <v>34.99993866666667</v>
       </c>
       <c r="N16">
-        <v>80.01807700000001</v>
+        <v>104.999816</v>
       </c>
       <c r="O16">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505349</v>
       </c>
       <c r="P16">
-        <v>0.05290680667377473</v>
+        <v>0.05231906813505348</v>
       </c>
       <c r="Q16">
-        <v>8537.646636596908</v>
+        <v>2320.586513441269</v>
       </c>
       <c r="R16">
-        <v>76838.81972937218</v>
+        <v>20885.27862097142</v>
       </c>
       <c r="S16">
-        <v>0.02754731804584313</v>
+        <v>0.01316499848393664</v>
       </c>
       <c r="T16">
-        <v>0.02754731804584313</v>
+        <v>0.01316499848393664</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H17">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>58.96764933333333</v>
+        <v>56.47565533333333</v>
       </c>
       <c r="N17">
-        <v>176.902948</v>
+        <v>169.426966</v>
       </c>
       <c r="O17">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341624</v>
       </c>
       <c r="P17">
-        <v>0.1169656960121252</v>
+        <v>0.08442168106341623</v>
       </c>
       <c r="Q17">
-        <v>18874.92071318182</v>
+        <v>3744.482107596002</v>
       </c>
       <c r="R17">
-        <v>169874.2864186364</v>
+        <v>33700.33896836402</v>
       </c>
       <c r="S17">
-        <v>0.0609012607464092</v>
+        <v>0.02124294913552977</v>
       </c>
       <c r="T17">
-        <v>0.0609012607464092</v>
+        <v>0.02124294913552977</v>
       </c>
     </row>
   </sheetData>
